--- a/2016-2017第二学期课程表（调整）.xlsx
+++ b/2016-2017第二学期课程表（调整）.xlsx
@@ -5,11 +5,11 @@
   <workbookPr defaultThemeVersion="124226"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Postbird\Desktop\dhuteachercoursehelper文件\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="I:\vsprojects\dhuteachercoursehelper文件\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="480" yWindow="300" windowWidth="18255" windowHeight="11325"/>
+    <workbookView xWindow="480" yWindow="300" windowWidth="18255" windowHeight="11325" activeTab="1"/>
   </bookViews>
   <sheets>
     <sheet name="2016-2017a松江课表" sheetId="1" r:id="rId1"/>
@@ -28,7 +28,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="297" uniqueCount="212">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="297" uniqueCount="207">
   <si>
     <t>星期一</t>
   </si>
@@ -261,10 +261,6 @@
   </si>
   <si>
     <t>大二、三</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>璐:女羽(高)</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
@@ -316,14 +312,6 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>袁:男乓(高)</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>杨:女乒(高)</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>18:30~</t>
   </si>
   <si>
@@ -371,10 +359,6 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>王:男篮（高）</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>卢:服创</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -391,10 +375,6 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>郁:游泳（高）</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>李:排舞</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -443,14 +423,6 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>赵:男乒(高)</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>琪:女排（高）</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>喆:男羽</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -463,10 +435,6 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>高:男足(高)</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>夏:救生</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -539,10 +507,6 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>冯:男羽（高）</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>郭:女羽</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -564,10 +528,6 @@
   </si>
   <si>
     <t>熊:排舞</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>叶:女乒（高）</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
@@ -611,14 +571,6 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>璐:女羽（高）</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>冯:女羽（高）</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>杨:男乒</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -690,18 +642,10 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>陆:街舞（L）</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>陆:腰鼓</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>辉:男攀（高）</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>辉:野外</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -718,10 +662,6 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>王:男篮(高)</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>高:男足</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -758,14 +698,6 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>张:男网（高）</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>张:女网（高）</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>张:女网</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -791,14 +723,6 @@
   </si>
   <si>
     <t>卢：拉丁</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>潘:中日（1）</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>潘：中日（2）</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
@@ -879,10 +803,6 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>马:女羽(高)</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>熊:瑜伽</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -922,6 +842,51 @@
   </si>
   <si>
     <t>鑫:体适能</t>
+  </si>
+  <si>
+    <t>高:男足(高)</t>
+  </si>
+  <si>
+    <t>赵:男乒(高)</t>
+  </si>
+  <si>
+    <t>琪:女排(高)</t>
+  </si>
+  <si>
+    <t>张:女网(高)</t>
+  </si>
+  <si>
+    <t>张:男网(高)</t>
+  </si>
+  <si>
+    <t>冯:男羽(高)</t>
+  </si>
+  <si>
+    <t>辉:男攀(高)</t>
+  </si>
+  <si>
+    <t>袁:男乓(高)</t>
+  </si>
+  <si>
+    <t>璐:女羽(高)</t>
+  </si>
+  <si>
+    <t>杨:女乒(高)</t>
+  </si>
+  <si>
+    <t>陆:街舞(L)</t>
+  </si>
+  <si>
+    <t>叶:女乒(高)</t>
+  </si>
+  <si>
+    <t>潘:中日(1)</t>
+  </si>
+  <si>
+    <t>冯:女羽(高)</t>
+  </si>
+  <si>
+    <t>潘：中日(2)</t>
   </si>
 </sst>
 </file>
@@ -2034,18 +1999,141 @@
     <xf numFmtId="0" fontId="14" fillId="5" borderId="20" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="11" fillId="5" borderId="48" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="5" borderId="48" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="5" borderId="48" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="5" borderId="48" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="5" borderId="48" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="5" borderId="48" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="5" borderId="48" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="5" borderId="48" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="20" fontId="11" fillId="5" borderId="48" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="5" borderId="48" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="5" borderId="48" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="20" fontId="11" fillId="5" borderId="48" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="5" borderId="48" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="5" borderId="48" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="5" borderId="48" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="5" borderId="48" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="5" borderId="48" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="5" borderId="48" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="20" fontId="11" fillId="5" borderId="48" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="5" borderId="48" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="23" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="19" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="24" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="justify" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="18" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="justify" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="26" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="22" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="justify" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="justify" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="30" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="justify" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="4" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="4" borderId="18" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="4" borderId="22" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="4" borderId="22" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="justify" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="4" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="justify" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="4" borderId="20" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="justify" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="4" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="justify" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="4" borderId="20" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="justify" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="4" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="justify" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="30" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="justify" vertical="center" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="4" fillId="4" borderId="39" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="4" borderId="18" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="30" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="22" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
@@ -2063,129 +2151,6 @@
     </xf>
     <xf numFmtId="0" fontId="6" fillId="4" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="justify" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="4" borderId="20" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="justify" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="4" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="justify" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="22" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="justify" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="justify" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="30" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="justify" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="4" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="4" borderId="22" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="4" borderId="22" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="justify" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="4" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="justify" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="4" borderId="20" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="justify" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="4" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="justify" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="justify" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="23" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="19" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="24" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="justify" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="18" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="justify" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="26" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="5" borderId="48" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="5" borderId="48" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="5" borderId="48" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="5" borderId="48" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="5" borderId="48" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="5" borderId="48" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="5" borderId="48" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="5" borderId="48" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="5" borderId="48" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="5" borderId="48" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="5" borderId="48" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="20" fontId="11" fillId="5" borderId="48" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="20" fontId="11" fillId="5" borderId="48" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="5" borderId="48" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="5" borderId="48" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="5" borderId="48" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="5" borderId="48" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="20" fontId="11" fillId="5" borderId="48" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="5" borderId="48" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="5" borderId="48" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -2493,862 +2458,877 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:N34"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="M12" sqref="M12"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="M15" sqref="M15"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.1" customHeight="1" x14ac:dyDescent="0.15"/>
   <cols>
-    <col min="1" max="1" width="5.375" style="154" customWidth="1"/>
-    <col min="2" max="2" width="7.875" style="154" customWidth="1"/>
-    <col min="3" max="3" width="12.5" style="154" customWidth="1"/>
-    <col min="4" max="4" width="11.5" style="154" customWidth="1"/>
-    <col min="5" max="5" width="10.5" style="154" customWidth="1"/>
-    <col min="6" max="8" width="11.5" style="154" customWidth="1"/>
-    <col min="9" max="9" width="14.25" style="154" customWidth="1"/>
-    <col min="10" max="11" width="12.125" style="154" customWidth="1"/>
-    <col min="12" max="12" width="11.625" style="154" customWidth="1"/>
-    <col min="13" max="16384" width="9" style="154"/>
+    <col min="1" max="1" width="5.375" style="122" customWidth="1"/>
+    <col min="2" max="2" width="7.875" style="122" customWidth="1"/>
+    <col min="3" max="3" width="12.5" style="122" customWidth="1"/>
+    <col min="4" max="4" width="11.5" style="122" customWidth="1"/>
+    <col min="5" max="5" width="10.5" style="122" customWidth="1"/>
+    <col min="6" max="8" width="11.5" style="122" customWidth="1"/>
+    <col min="9" max="9" width="14.25" style="122" customWidth="1"/>
+    <col min="10" max="11" width="12.125" style="122" customWidth="1"/>
+    <col min="12" max="12" width="11.625" style="122" customWidth="1"/>
+    <col min="13" max="16384" width="9" style="122"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:14" ht="21" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A1" s="153" t="s">
+      <c r="A1" s="136" t="s">
+        <v>141</v>
+      </c>
+      <c r="B1" s="136"/>
+      <c r="C1" s="136"/>
+      <c r="D1" s="136"/>
+      <c r="E1" s="136"/>
+      <c r="F1" s="136"/>
+      <c r="G1" s="136"/>
+      <c r="H1" s="136"/>
+      <c r="I1" s="136"/>
+      <c r="J1" s="136"/>
+      <c r="K1" s="136"/>
+      <c r="L1" s="136"/>
+    </row>
+    <row r="2" spans="1:14" ht="14.1" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A2" s="141"/>
+      <c r="B2" s="123"/>
+      <c r="C2" s="141" t="s">
+        <v>0</v>
+      </c>
+      <c r="D2" s="141"/>
+      <c r="E2" s="141" t="s">
+        <v>1</v>
+      </c>
+      <c r="F2" s="141"/>
+      <c r="G2" s="141" t="s">
+        <v>2</v>
+      </c>
+      <c r="H2" s="141"/>
+      <c r="I2" s="141" t="s">
+        <v>3</v>
+      </c>
+      <c r="J2" s="141"/>
+      <c r="K2" s="141" t="s">
+        <v>4</v>
+      </c>
+      <c r="L2" s="141"/>
+    </row>
+    <row r="3" spans="1:14" ht="14.1" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A3" s="141"/>
+      <c r="B3" s="123"/>
+      <c r="C3" s="124" t="s">
+        <v>5</v>
+      </c>
+      <c r="D3" s="125" t="s">
+        <v>6</v>
+      </c>
+      <c r="E3" s="124" t="s">
+        <v>5</v>
+      </c>
+      <c r="F3" s="125" t="s">
+        <v>6</v>
+      </c>
+      <c r="G3" s="124" t="s">
+        <v>5</v>
+      </c>
+      <c r="H3" s="125" t="s">
+        <v>6</v>
+      </c>
+      <c r="I3" s="124" t="s">
+        <v>5</v>
+      </c>
+      <c r="J3" s="125" t="s">
+        <v>6</v>
+      </c>
+      <c r="K3" s="124" t="s">
+        <v>5</v>
+      </c>
+      <c r="L3" s="125" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="4" spans="1:14" ht="14.1" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A4" s="123" t="s">
+        <v>7</v>
+      </c>
+      <c r="B4" s="137" t="s">
+        <v>84</v>
+      </c>
+      <c r="C4" s="126" t="s">
+        <v>44</v>
+      </c>
+      <c r="D4" s="127" t="s">
+        <v>86</v>
+      </c>
+      <c r="E4" s="128" t="s">
+        <v>33</v>
+      </c>
+      <c r="F4" s="129" t="s">
+        <v>194</v>
+      </c>
+      <c r="G4" s="128" t="s">
+        <v>34</v>
+      </c>
+      <c r="H4" s="129" t="s">
+        <v>119</v>
+      </c>
+      <c r="I4" s="128" t="s">
+        <v>35</v>
+      </c>
+      <c r="J4" s="129" t="s">
+        <v>132</v>
+      </c>
+      <c r="K4" s="128" t="s">
+        <v>36</v>
+      </c>
+      <c r="L4" s="127" t="s">
+        <v>149</v>
+      </c>
+    </row>
+    <row r="5" spans="1:14" ht="14.1" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A5" s="130">
+        <v>0.34375</v>
+      </c>
+      <c r="B5" s="137"/>
+      <c r="D5" s="127"/>
+      <c r="E5" s="128" t="s">
+        <v>37</v>
+      </c>
+      <c r="F5" s="129" t="s">
+        <v>38</v>
+      </c>
+      <c r="G5" s="128" t="s">
+        <v>55</v>
+      </c>
+      <c r="H5" s="129" t="s">
+        <v>39</v>
+      </c>
+      <c r="I5" s="128" t="s">
+        <v>126</v>
+      </c>
+      <c r="J5" s="129" t="s">
+        <v>40</v>
+      </c>
+      <c r="K5" s="128" t="s">
+        <v>41</v>
+      </c>
+      <c r="L5" s="127"/>
+    </row>
+    <row r="6" spans="1:14" ht="14.1" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A6" s="123" t="s">
+        <v>8</v>
+      </c>
+      <c r="B6" s="137"/>
+      <c r="C6" s="126"/>
+      <c r="D6" s="127"/>
+      <c r="E6" s="128" t="s">
+        <v>42</v>
+      </c>
+      <c r="F6" s="129" t="s">
+        <v>182</v>
+      </c>
+      <c r="G6" s="128" t="s">
+        <v>43</v>
+      </c>
+      <c r="H6" s="129" t="s">
+        <v>120</v>
+      </c>
+      <c r="I6" s="128"/>
+      <c r="J6" s="129"/>
+      <c r="K6" s="128"/>
+      <c r="L6" s="127"/>
+    </row>
+    <row r="7" spans="1:14" ht="14.1" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A7" s="130">
+        <v>0.40625</v>
+      </c>
+      <c r="B7" s="140" t="s">
+        <v>85</v>
+      </c>
+      <c r="C7" s="126" t="s">
+        <v>112</v>
+      </c>
+      <c r="D7" s="131" t="s">
+        <v>32</v>
+      </c>
+      <c r="E7" s="128" t="s">
+        <v>45</v>
+      </c>
+      <c r="F7" s="129" t="s">
+        <v>160</v>
+      </c>
+      <c r="G7" s="128" t="s">
+        <v>46</v>
+      </c>
+      <c r="H7" s="127" t="s">
+        <v>195</v>
+      </c>
+      <c r="I7" s="126" t="s">
+        <v>125</v>
+      </c>
+      <c r="J7" s="127" t="s">
+        <v>131</v>
+      </c>
+      <c r="K7" s="126" t="s">
+        <v>109</v>
+      </c>
+      <c r="L7" s="127" t="s">
+        <v>98</v>
+      </c>
+    </row>
+    <row r="8" spans="1:14" ht="14.1" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A8" s="123"/>
+      <c r="B8" s="140"/>
+      <c r="C8" s="126" t="s">
+        <v>180</v>
+      </c>
+      <c r="E8" s="128" t="s">
+        <v>41</v>
+      </c>
+      <c r="F8" s="129"/>
+      <c r="G8" s="128" t="s">
+        <v>37</v>
+      </c>
+      <c r="H8" s="131"/>
+      <c r="I8" s="128" t="s">
+        <v>64</v>
+      </c>
+      <c r="J8" s="127"/>
+      <c r="K8" s="126"/>
+      <c r="L8" s="127" t="s">
+        <v>166</v>
+      </c>
+      <c r="N8" s="126"/>
+    </row>
+    <row r="9" spans="1:14" ht="14.1" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A9" s="123"/>
+      <c r="B9" s="140"/>
+      <c r="C9" s="126"/>
+      <c r="D9" s="127"/>
+      <c r="E9" s="128"/>
+      <c r="F9" s="129"/>
+      <c r="G9" s="128" t="s">
+        <v>49</v>
+      </c>
+      <c r="H9" s="127"/>
+      <c r="I9" s="126"/>
+      <c r="J9" s="127"/>
+      <c r="K9" s="126"/>
+      <c r="L9" s="127"/>
+      <c r="N9" s="126"/>
+    </row>
+    <row r="10" spans="1:14" ht="14.1" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A10" s="123" t="s">
+        <v>9</v>
+      </c>
+      <c r="B10" s="137" t="s">
+        <v>27</v>
+      </c>
+      <c r="C10" s="128" t="s">
+        <v>44</v>
+      </c>
+      <c r="D10" s="127" t="s">
+        <v>50</v>
+      </c>
+      <c r="E10" s="128" t="s">
+        <v>114</v>
+      </c>
+      <c r="F10" s="129" t="s">
+        <v>48</v>
+      </c>
+      <c r="G10" s="128" t="s">
+        <v>183</v>
+      </c>
+      <c r="H10" s="129" t="s">
+        <v>118</v>
+      </c>
+      <c r="I10" s="128" t="s">
+        <v>51</v>
+      </c>
+      <c r="J10" s="129" t="s">
+        <v>47</v>
+      </c>
+      <c r="K10" s="126" t="s">
+        <v>52</v>
+      </c>
+      <c r="L10" s="127" t="s">
+        <v>156</v>
+      </c>
+    </row>
+    <row r="11" spans="1:14" ht="14.1" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A11" s="130">
+        <v>0.4201388888888889</v>
+      </c>
+      <c r="B11" s="137"/>
+      <c r="C11" s="128" t="s">
+        <v>184</v>
+      </c>
+      <c r="D11" s="127"/>
+      <c r="E11" s="128" t="s">
+        <v>41</v>
+      </c>
+      <c r="F11" s="129" t="s">
+        <v>56</v>
+      </c>
+      <c r="G11" s="128" t="s">
+        <v>46</v>
+      </c>
+      <c r="H11" s="129" t="s">
+        <v>48</v>
+      </c>
+      <c r="I11" s="128" t="s">
+        <v>124</v>
+      </c>
+      <c r="J11" s="129"/>
+      <c r="K11" s="132" t="s">
+        <v>110</v>
+      </c>
+      <c r="L11" s="127"/>
+    </row>
+    <row r="12" spans="1:14" ht="14.1" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A12" s="123" t="s">
+        <v>8</v>
+      </c>
+      <c r="B12" s="137"/>
+      <c r="C12" s="128"/>
+      <c r="D12" s="127"/>
+      <c r="E12" s="128" t="s">
+        <v>192</v>
+      </c>
+      <c r="F12" s="131"/>
+      <c r="G12" s="128" t="s">
+        <v>53</v>
+      </c>
+      <c r="H12" s="129" t="s">
+        <v>159</v>
+      </c>
+      <c r="I12" s="128" t="s">
+        <v>127</v>
+      </c>
+      <c r="J12" s="129"/>
+      <c r="K12" s="126"/>
+      <c r="L12" s="127"/>
+    </row>
+    <row r="13" spans="1:14" ht="14.1" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A13" s="130">
+        <v>0.4826388888888889</v>
+      </c>
+      <c r="B13" s="137"/>
+      <c r="C13" s="128"/>
+      <c r="D13" s="127"/>
+      <c r="E13" s="128" t="s">
+        <v>116</v>
+      </c>
+      <c r="F13" s="129"/>
+      <c r="G13" s="128" t="s">
+        <v>49</v>
+      </c>
+      <c r="H13" s="129"/>
+      <c r="I13" s="128"/>
+      <c r="J13" s="129"/>
+      <c r="K13" s="126"/>
+      <c r="L13" s="127"/>
+    </row>
+    <row r="14" spans="1:14" ht="14.1" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A14" s="141"/>
+      <c r="B14" s="137" t="s">
+        <v>31</v>
+      </c>
+      <c r="C14" s="128" t="s">
+        <v>54</v>
+      </c>
+      <c r="D14" s="127" t="s">
+        <v>32</v>
+      </c>
+      <c r="E14" s="128" t="s">
+        <v>140</v>
+      </c>
+      <c r="F14" s="129" t="s">
+        <v>161</v>
+      </c>
+      <c r="G14" s="128" t="s">
+        <v>34</v>
+      </c>
+      <c r="H14" s="129" t="s">
+        <v>154</v>
+      </c>
+      <c r="I14" s="128" t="s">
+        <v>35</v>
+      </c>
+      <c r="J14" s="129" t="s">
+        <v>40</v>
+      </c>
+      <c r="K14" s="128" t="s">
+        <v>36</v>
+      </c>
+      <c r="L14" s="127" t="s">
+        <v>175</v>
+      </c>
+    </row>
+    <row r="15" spans="1:14" ht="14.1" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A15" s="141"/>
+      <c r="B15" s="137"/>
+      <c r="C15" s="128" t="s">
+        <v>35</v>
+      </c>
+      <c r="D15" s="127" t="s">
+        <v>185</v>
+      </c>
+      <c r="E15" s="128" t="s">
+        <v>113</v>
+      </c>
+      <c r="F15" s="129" t="s">
+        <v>162</v>
+      </c>
+      <c r="G15" s="128" t="s">
+        <v>55</v>
+      </c>
+      <c r="H15" s="129" t="s">
         <v>153</v>
       </c>
-      <c r="B1" s="153"/>
-      <c r="C1" s="153"/>
-      <c r="D1" s="153"/>
-      <c r="E1" s="153"/>
-      <c r="F1" s="153"/>
-      <c r="G1" s="153"/>
-      <c r="H1" s="153"/>
-      <c r="I1" s="153"/>
-      <c r="J1" s="153"/>
-      <c r="K1" s="153"/>
-      <c r="L1" s="153"/>
-    </row>
-    <row r="2" spans="1:14" ht="14.1" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A2" s="155"/>
-      <c r="B2" s="156"/>
-      <c r="C2" s="155" t="s">
-        <v>0</v>
-      </c>
-      <c r="D2" s="155"/>
-      <c r="E2" s="155" t="s">
-        <v>1</v>
-      </c>
-      <c r="F2" s="155"/>
-      <c r="G2" s="155" t="s">
-        <v>2</v>
-      </c>
-      <c r="H2" s="155"/>
-      <c r="I2" s="155" t="s">
-        <v>3</v>
-      </c>
-      <c r="J2" s="155"/>
-      <c r="K2" s="155" t="s">
-        <v>4</v>
-      </c>
-      <c r="L2" s="155"/>
-    </row>
-    <row r="3" spans="1:14" ht="14.1" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A3" s="155"/>
-      <c r="B3" s="156"/>
-      <c r="C3" s="157" t="s">
-        <v>5</v>
-      </c>
-      <c r="D3" s="158" t="s">
-        <v>6</v>
-      </c>
-      <c r="E3" s="157" t="s">
-        <v>5</v>
-      </c>
-      <c r="F3" s="158" t="s">
-        <v>6</v>
-      </c>
-      <c r="G3" s="157" t="s">
-        <v>5</v>
-      </c>
-      <c r="H3" s="158" t="s">
-        <v>6</v>
-      </c>
-      <c r="I3" s="157" t="s">
-        <v>5</v>
-      </c>
-      <c r="J3" s="158" t="s">
-        <v>6</v>
-      </c>
-      <c r="K3" s="157" t="s">
-        <v>5</v>
-      </c>
-      <c r="L3" s="158" t="s">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="4" spans="1:14" ht="14.1" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A4" s="156" t="s">
-        <v>7</v>
-      </c>
-      <c r="B4" s="159" t="s">
+      <c r="I15" s="128" t="s">
+        <v>123</v>
+      </c>
+      <c r="J15" s="129" t="s">
+        <v>56</v>
+      </c>
+      <c r="K15" s="128" t="s">
+        <v>99</v>
+      </c>
+      <c r="L15" s="127"/>
+    </row>
+    <row r="16" spans="1:14" ht="14.1" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A16" s="141"/>
+      <c r="B16" s="137"/>
+      <c r="D16" s="127"/>
+      <c r="E16" s="128" t="s">
+        <v>186</v>
+      </c>
+      <c r="F16" s="129"/>
+      <c r="G16" s="128" t="s">
+        <v>37</v>
+      </c>
+      <c r="H16" s="129"/>
+      <c r="I16" s="128" t="s">
+        <v>196</v>
+      </c>
+      <c r="J16" s="129" t="s">
+        <v>173</v>
+      </c>
+      <c r="K16" s="128" t="s">
+        <v>193</v>
+      </c>
+      <c r="L16" s="127"/>
+    </row>
+    <row r="17" spans="1:12" ht="14.1" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A17" s="123" t="s">
+        <v>10</v>
+      </c>
+      <c r="B17" s="137" t="s">
         <v>87</v>
       </c>
-      <c r="C4" s="160" t="s">
+      <c r="C17" s="128" t="s">
+        <v>115</v>
+      </c>
+      <c r="D17" s="127" t="s">
+        <v>47</v>
+      </c>
+      <c r="E17" s="126" t="s">
+        <v>57</v>
+      </c>
+      <c r="F17" s="129"/>
+      <c r="G17" s="128" t="s">
+        <v>58</v>
+      </c>
+      <c r="H17" s="131" t="s">
+        <v>187</v>
+      </c>
+      <c r="I17" s="128" t="s">
+        <v>128</v>
+      </c>
+      <c r="J17" s="129" t="s">
+        <v>134</v>
+      </c>
+      <c r="K17" s="128" t="s">
+        <v>36</v>
+      </c>
+      <c r="L17" s="127" t="s">
+        <v>155</v>
+      </c>
+    </row>
+    <row r="18" spans="1:12" ht="14.1" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A18" s="123"/>
+      <c r="B18" s="137"/>
+      <c r="C18" s="128" t="s">
+        <v>157</v>
+      </c>
+      <c r="D18" s="127" t="s">
+        <v>188</v>
+      </c>
+      <c r="E18" s="126"/>
+      <c r="F18" s="129"/>
+      <c r="G18" s="128" t="s">
+        <v>121</v>
+      </c>
+      <c r="H18" s="131"/>
+      <c r="I18" s="128" t="s">
+        <v>122</v>
+      </c>
+      <c r="J18" s="129" t="s">
+        <v>148</v>
+      </c>
+      <c r="K18" s="128" t="s">
+        <v>181</v>
+      </c>
+      <c r="L18" s="127"/>
+    </row>
+    <row r="19" spans="1:12" ht="14.1" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A19" s="130">
+        <v>0.54166666666666663</v>
+      </c>
+      <c r="B19" s="137"/>
+      <c r="C19" s="132"/>
+      <c r="D19" s="127"/>
+      <c r="E19" s="126"/>
+      <c r="F19" s="129"/>
+      <c r="G19" s="128" t="s">
+        <v>174</v>
+      </c>
+      <c r="H19" s="129"/>
+      <c r="I19" s="128" t="s">
+        <v>97</v>
+      </c>
+      <c r="J19" s="129"/>
+      <c r="K19" s="128"/>
+      <c r="L19" s="127"/>
+    </row>
+    <row r="20" spans="1:12" ht="14.1" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A20" s="130">
+        <v>0.60416666666666663</v>
+      </c>
+      <c r="B20" s="140" t="s">
+        <v>31</v>
+      </c>
+      <c r="C20" s="128" t="s">
         <v>44</v>
       </c>
-      <c r="D4" s="161" t="s">
+      <c r="D20" s="127" t="s">
+        <v>60</v>
+      </c>
+      <c r="E20" s="126" t="s">
+        <v>57</v>
+      </c>
+      <c r="F20" s="129"/>
+      <c r="G20" s="128" t="s">
+        <v>59</v>
+      </c>
+      <c r="H20" s="127" t="s">
+        <v>61</v>
+      </c>
+      <c r="I20" s="128" t="s">
+        <v>129</v>
+      </c>
+      <c r="J20" s="129" t="s">
+        <v>167</v>
+      </c>
+      <c r="K20" s="126" t="s">
+        <v>52</v>
+      </c>
+      <c r="L20" s="127" t="s">
+        <v>111</v>
+      </c>
+    </row>
+    <row r="21" spans="1:12" ht="14.1" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A21" s="123"/>
+      <c r="B21" s="140"/>
+      <c r="C21" s="128" t="s">
+        <v>150</v>
+      </c>
+      <c r="D21" s="127" t="s">
+        <v>189</v>
+      </c>
+      <c r="E21" s="126"/>
+      <c r="F21" s="129"/>
+      <c r="G21" s="128" t="s">
+        <v>62</v>
+      </c>
+      <c r="H21" s="129" t="s">
+        <v>25</v>
+      </c>
+      <c r="I21" s="128" t="s">
+        <v>41</v>
+      </c>
+      <c r="J21" s="129" t="s">
+        <v>190</v>
+      </c>
+      <c r="K21" s="126"/>
+      <c r="L21" s="127"/>
+    </row>
+    <row r="22" spans="1:12" ht="14.1" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A22" s="123"/>
+      <c r="B22" s="140"/>
+      <c r="C22" s="128" t="s">
+        <v>151</v>
+      </c>
+      <c r="E22" s="126"/>
+      <c r="F22" s="129"/>
+      <c r="G22" s="128"/>
+      <c r="H22" s="127"/>
+      <c r="I22" s="128" t="s">
+        <v>158</v>
+      </c>
+      <c r="J22" s="129"/>
+      <c r="K22" s="126"/>
+      <c r="L22" s="127"/>
+    </row>
+    <row r="23" spans="1:12" ht="14.1" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A23" s="123"/>
+      <c r="B23" s="140"/>
+      <c r="C23" s="132"/>
+      <c r="D23" s="127"/>
+      <c r="E23" s="126"/>
+      <c r="F23" s="129"/>
+      <c r="G23" s="128"/>
+      <c r="H23" s="127"/>
+      <c r="I23" s="128"/>
+      <c r="J23" s="129"/>
+      <c r="K23" s="126"/>
+      <c r="L23" s="127"/>
+    </row>
+    <row r="24" spans="1:12" ht="14.1" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A24" s="123" t="s">
+        <v>11</v>
+      </c>
+      <c r="B24" s="137" t="s">
+        <v>88</v>
+      </c>
+      <c r="C24" s="128" t="s">
+        <v>35</v>
+      </c>
+      <c r="D24" s="127" t="s">
+        <v>63</v>
+      </c>
+      <c r="E24" s="139"/>
+      <c r="F24" s="138"/>
+      <c r="G24" s="128" t="s">
+        <v>152</v>
+      </c>
+      <c r="H24" s="127" t="s">
+        <v>133</v>
+      </c>
+      <c r="I24" s="128" t="s">
+        <v>197</v>
+      </c>
+      <c r="J24" s="127"/>
+      <c r="K24" s="139"/>
+      <c r="L24" s="138"/>
+    </row>
+    <row r="25" spans="1:12" ht="14.1" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A25" s="130">
+        <v>0.61805555555555558</v>
+      </c>
+      <c r="B25" s="137"/>
+      <c r="C25" s="128" t="s">
+        <v>53</v>
+      </c>
+      <c r="D25" s="127"/>
+      <c r="E25" s="139"/>
+      <c r="F25" s="138"/>
+      <c r="G25" s="128"/>
+      <c r="H25" s="127"/>
+      <c r="I25" s="126"/>
+      <c r="J25" s="127"/>
+      <c r="K25" s="139"/>
+      <c r="L25" s="138"/>
+    </row>
+    <row r="26" spans="1:12" ht="14.1" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A26" s="130">
+        <v>0.68055555555555547</v>
+      </c>
+      <c r="B26" s="140" t="s">
         <v>89</v>
       </c>
-      <c r="E4" s="162" t="s">
-        <v>33</v>
-      </c>
-      <c r="F4" s="163" t="s">
-        <v>116</v>
-      </c>
-      <c r="G4" s="162" t="s">
-        <v>34</v>
-      </c>
-      <c r="H4" s="163" t="s">
-        <v>127</v>
-      </c>
-      <c r="I4" s="162" t="s">
-        <v>35</v>
-      </c>
-      <c r="J4" s="163" t="s">
-        <v>141</v>
-      </c>
-      <c r="K4" s="162" t="s">
-        <v>36</v>
-      </c>
-      <c r="L4" s="161" t="s">
-        <v>163</v>
-      </c>
-    </row>
-    <row r="5" spans="1:14" ht="14.1" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A5" s="164">
-        <v>0.34375</v>
-      </c>
-      <c r="B5" s="159"/>
-      <c r="D5" s="161"/>
-      <c r="E5" s="162" t="s">
-        <v>37</v>
-      </c>
-      <c r="F5" s="163" t="s">
-        <v>38</v>
-      </c>
-      <c r="G5" s="162" t="s">
-        <v>102</v>
-      </c>
-      <c r="H5" s="163" t="s">
-        <v>39</v>
-      </c>
-      <c r="I5" s="162" t="s">
-        <v>134</v>
-      </c>
-      <c r="J5" s="163" t="s">
-        <v>40</v>
-      </c>
-      <c r="K5" s="162" t="s">
+      <c r="C26" s="128" t="s">
+        <v>109</v>
+      </c>
+      <c r="D26" s="127" t="s">
+        <v>189</v>
+      </c>
+      <c r="E26" s="139"/>
+      <c r="F26" s="139" t="s">
+        <v>191</v>
+      </c>
+      <c r="G26" s="128" t="s">
+        <v>59</v>
+      </c>
+      <c r="H26" s="127" t="s">
+        <v>189</v>
+      </c>
+      <c r="I26" s="128" t="s">
+        <v>59</v>
+      </c>
+      <c r="J26" s="129" t="s">
+        <v>172</v>
+      </c>
+      <c r="K26" s="139"/>
+      <c r="L26" s="138"/>
+    </row>
+    <row r="27" spans="1:12" ht="14.1" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A27" s="123"/>
+      <c r="B27" s="140"/>
+      <c r="C27" s="126"/>
+      <c r="D27" s="127"/>
+      <c r="E27" s="139"/>
+      <c r="F27" s="139"/>
+      <c r="H27" s="127"/>
+      <c r="I27" s="132" t="s">
+        <v>130</v>
+      </c>
+      <c r="J27" s="129"/>
+      <c r="K27" s="139"/>
+      <c r="L27" s="138"/>
+    </row>
+    <row r="28" spans="1:12" ht="14.1" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A28" s="124">
+        <v>9</v>
+      </c>
+      <c r="B28" s="133" t="s">
+        <v>90</v>
+      </c>
+      <c r="C28" s="126"/>
+      <c r="D28" s="127"/>
+      <c r="E28" s="128"/>
+      <c r="F28" s="125"/>
+      <c r="G28" s="128"/>
+      <c r="H28" s="127"/>
+      <c r="I28" s="132" t="s">
+        <v>96</v>
+      </c>
+      <c r="J28" s="129"/>
+      <c r="K28" s="128"/>
+      <c r="L28" s="125"/>
+    </row>
+    <row r="29" spans="1:12" ht="14.1" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A29" s="123" t="s">
+        <v>91</v>
+      </c>
+      <c r="B29" s="133" t="s">
+        <v>89</v>
+      </c>
+      <c r="C29" s="126"/>
+      <c r="D29" s="127"/>
+      <c r="E29" s="128"/>
+      <c r="F29" s="129" t="s">
+        <v>181</v>
+      </c>
+      <c r="G29" s="128" t="s">
+        <v>92</v>
+      </c>
+      <c r="H29" s="127"/>
+      <c r="I29" s="128"/>
+      <c r="J29" s="129"/>
+      <c r="K29" s="128"/>
+      <c r="L29" s="125"/>
+    </row>
+    <row r="30" spans="1:12" ht="14.1" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A30" s="123" t="s">
+        <v>12</v>
+      </c>
+      <c r="B30" s="137" t="s">
+        <v>27</v>
+      </c>
+      <c r="C30" s="139"/>
+      <c r="D30" s="127" t="s">
+        <v>189</v>
+      </c>
+      <c r="E30" s="126" t="s">
+        <v>117</v>
+      </c>
+      <c r="F30" s="129" t="s">
+        <v>188</v>
+      </c>
+      <c r="G30" s="139"/>
+      <c r="H30" s="127"/>
+      <c r="I30" s="139"/>
+      <c r="J30" s="131"/>
+      <c r="K30" s="137"/>
+      <c r="L30" s="138"/>
+    </row>
+    <row r="31" spans="1:12" ht="14.1" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A31" s="130">
+        <v>0.75</v>
+      </c>
+      <c r="B31" s="137"/>
+      <c r="C31" s="139"/>
+      <c r="D31" s="127"/>
+      <c r="E31" s="126" t="s">
         <v>41</v>
       </c>
-      <c r="L5" s="161"/>
-    </row>
-    <row r="6" spans="1:14" ht="14.1" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A6" s="156" t="s">
-        <v>8</v>
-      </c>
-      <c r="B6" s="159"/>
-      <c r="C6" s="160"/>
-      <c r="D6" s="161"/>
-      <c r="E6" s="162" t="s">
-        <v>42</v>
-      </c>
-      <c r="F6" s="163" t="s">
-        <v>202</v>
-      </c>
-      <c r="G6" s="162" t="s">
-        <v>43</v>
-      </c>
-      <c r="H6" s="163" t="s">
-        <v>128</v>
-      </c>
-      <c r="I6" s="162"/>
-      <c r="J6" s="163"/>
-      <c r="K6" s="162"/>
-      <c r="L6" s="161"/>
-    </row>
-    <row r="7" spans="1:14" ht="14.1" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A7" s="164">
-        <v>0.40625</v>
-      </c>
-      <c r="B7" s="165" t="s">
-        <v>88</v>
-      </c>
-      <c r="C7" s="160" t="s">
-        <v>119</v>
-      </c>
-      <c r="D7" s="166" t="s">
-        <v>32</v>
-      </c>
-      <c r="E7" s="162" t="s">
-        <v>45</v>
-      </c>
-      <c r="F7" s="163" t="s">
-        <v>177</v>
-      </c>
-      <c r="G7" s="162" t="s">
-        <v>46</v>
-      </c>
-      <c r="H7" s="161" t="s">
-        <v>175</v>
-      </c>
-      <c r="I7" s="160" t="s">
-        <v>133</v>
-      </c>
-      <c r="J7" s="161" t="s">
-        <v>140</v>
-      </c>
-      <c r="K7" s="160" t="s">
-        <v>114</v>
-      </c>
-      <c r="L7" s="161" t="s">
-        <v>103</v>
-      </c>
-    </row>
-    <row r="8" spans="1:14" ht="14.1" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A8" s="156"/>
-      <c r="B8" s="165"/>
-      <c r="C8" s="160" t="s">
-        <v>200</v>
-      </c>
-      <c r="E8" s="162" t="s">
-        <v>41</v>
-      </c>
-      <c r="F8" s="163"/>
-      <c r="G8" s="162" t="s">
-        <v>37</v>
-      </c>
-      <c r="H8" s="166"/>
-      <c r="I8" s="162" t="s">
-        <v>64</v>
-      </c>
-      <c r="J8" s="161"/>
-      <c r="K8" s="160"/>
-      <c r="L8" s="161" t="s">
-        <v>185</v>
-      </c>
-      <c r="N8" s="160"/>
-    </row>
-    <row r="9" spans="1:14" ht="14.1" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A9" s="156"/>
-      <c r="B9" s="165"/>
-      <c r="C9" s="160"/>
-      <c r="D9" s="161"/>
-      <c r="E9" s="162"/>
-      <c r="F9" s="163"/>
-      <c r="G9" s="162" t="s">
-        <v>49</v>
-      </c>
-      <c r="H9" s="161"/>
-      <c r="I9" s="160"/>
-      <c r="J9" s="161"/>
-      <c r="K9" s="160"/>
-      <c r="L9" s="161"/>
-      <c r="N9" s="160"/>
-    </row>
-    <row r="10" spans="1:14" ht="14.1" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A10" s="156" t="s">
-        <v>9</v>
-      </c>
-      <c r="B10" s="159" t="s">
-        <v>27</v>
-      </c>
-      <c r="C10" s="162" t="s">
-        <v>97</v>
-      </c>
-      <c r="D10" s="161" t="s">
-        <v>50</v>
-      </c>
-      <c r="E10" s="162" t="s">
-        <v>122</v>
-      </c>
-      <c r="F10" s="163" t="s">
-        <v>48</v>
-      </c>
-      <c r="G10" s="162" t="s">
-        <v>203</v>
-      </c>
-      <c r="H10" s="163" t="s">
-        <v>126</v>
-      </c>
-      <c r="I10" s="162" t="s">
-        <v>51</v>
-      </c>
-      <c r="J10" s="163" t="s">
-        <v>47</v>
-      </c>
-      <c r="K10" s="160" t="s">
-        <v>52</v>
-      </c>
-      <c r="L10" s="161" t="s">
-        <v>171</v>
-      </c>
-    </row>
-    <row r="11" spans="1:14" ht="14.1" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A11" s="164">
-        <v>0.4201388888888889</v>
-      </c>
-      <c r="B11" s="159"/>
-      <c r="C11" s="162" t="s">
-        <v>204</v>
-      </c>
-      <c r="D11" s="161"/>
-      <c r="E11" s="162" t="s">
-        <v>41</v>
-      </c>
-      <c r="F11" s="163" t="s">
-        <v>56</v>
-      </c>
-      <c r="G11" s="162" t="s">
-        <v>46</v>
-      </c>
-      <c r="H11" s="163" t="s">
-        <v>48</v>
-      </c>
-      <c r="I11" s="162" t="s">
-        <v>132</v>
-      </c>
-      <c r="J11" s="163"/>
-      <c r="K11" s="167" t="s">
-        <v>117</v>
-      </c>
-      <c r="L11" s="161"/>
-    </row>
-    <row r="12" spans="1:14" ht="14.1" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A12" s="156" t="s">
-        <v>8</v>
-      </c>
-      <c r="B12" s="159"/>
-      <c r="C12" s="162"/>
-      <c r="D12" s="161"/>
-      <c r="E12" s="162" t="s">
-        <v>120</v>
-      </c>
-      <c r="F12" s="166"/>
-      <c r="G12" s="162" t="s">
-        <v>53</v>
-      </c>
-      <c r="H12" s="163" t="s">
-        <v>176</v>
-      </c>
-      <c r="I12" s="162" t="s">
-        <v>135</v>
-      </c>
-      <c r="J12" s="163"/>
-      <c r="K12" s="160"/>
-      <c r="L12" s="161"/>
-    </row>
-    <row r="13" spans="1:14" ht="14.1" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A13" s="164">
-        <v>0.4826388888888889</v>
-      </c>
-      <c r="B13" s="159"/>
-      <c r="C13" s="162"/>
-      <c r="D13" s="161"/>
-      <c r="E13" s="162" t="s">
-        <v>124</v>
-      </c>
-      <c r="F13" s="163"/>
-      <c r="G13" s="162" t="s">
-        <v>49</v>
-      </c>
-      <c r="H13" s="163"/>
-      <c r="I13" s="162"/>
-      <c r="J13" s="163"/>
-      <c r="K13" s="160"/>
-      <c r="L13" s="161"/>
-    </row>
-    <row r="14" spans="1:14" ht="14.1" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A14" s="155"/>
-      <c r="B14" s="159" t="s">
+      <c r="F31" s="129"/>
+      <c r="G31" s="139"/>
+      <c r="H31" s="127"/>
+      <c r="I31" s="139"/>
+      <c r="J31" s="134"/>
+      <c r="K31" s="137"/>
+      <c r="L31" s="138"/>
+    </row>
+    <row r="32" spans="1:12" ht="14.1" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A32" s="123" t="s">
+        <v>65</v>
+      </c>
+      <c r="B32" s="124" t="s">
         <v>31</v>
       </c>
-      <c r="C14" s="162" t="s">
-        <v>54</v>
-      </c>
-      <c r="D14" s="161" t="s">
-        <v>32</v>
-      </c>
-      <c r="E14" s="162" t="s">
-        <v>152</v>
-      </c>
-      <c r="F14" s="163" t="s">
-        <v>178</v>
-      </c>
-      <c r="G14" s="162" t="s">
-        <v>34</v>
-      </c>
-      <c r="H14" s="163" t="s">
-        <v>169</v>
-      </c>
-      <c r="I14" s="162" t="s">
-        <v>35</v>
-      </c>
-      <c r="J14" s="163" t="s">
-        <v>40</v>
-      </c>
-      <c r="K14" s="162" t="s">
-        <v>36</v>
-      </c>
-      <c r="L14" s="161" t="s">
-        <v>194</v>
-      </c>
-    </row>
-    <row r="15" spans="1:14" ht="14.1" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A15" s="155"/>
-      <c r="B15" s="159"/>
-      <c r="C15" s="162" t="s">
-        <v>35</v>
-      </c>
-      <c r="D15" s="161" t="s">
-        <v>205</v>
-      </c>
-      <c r="E15" s="162" t="s">
-        <v>121</v>
-      </c>
-      <c r="F15" s="163" t="s">
-        <v>179</v>
-      </c>
-      <c r="G15" s="162" t="s">
-        <v>55</v>
-      </c>
-      <c r="H15" s="163" t="s">
-        <v>168</v>
-      </c>
-      <c r="I15" s="162" t="s">
-        <v>131</v>
-      </c>
-      <c r="J15" s="163" t="s">
-        <v>56</v>
-      </c>
-      <c r="K15" s="162" t="s">
-        <v>104</v>
-      </c>
-      <c r="L15" s="161"/>
-    </row>
-    <row r="16" spans="1:14" ht="14.1" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A16" s="155"/>
-      <c r="B16" s="159"/>
-      <c r="D16" s="161"/>
-      <c r="E16" s="162" t="s">
-        <v>206</v>
-      </c>
-      <c r="F16" s="163"/>
-      <c r="G16" s="162" t="s">
-        <v>37</v>
-      </c>
-      <c r="H16" s="163"/>
-      <c r="I16" s="162" t="s">
-        <v>174</v>
-      </c>
-      <c r="J16" s="163" t="s">
-        <v>192</v>
-      </c>
-      <c r="K16" s="162" t="s">
-        <v>115</v>
-      </c>
-      <c r="L16" s="161"/>
-    </row>
-    <row r="17" spans="1:12" ht="14.1" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A17" s="156" t="s">
-        <v>10</v>
-      </c>
-      <c r="B17" s="159" t="s">
-        <v>90</v>
-      </c>
-      <c r="C17" s="162" t="s">
-        <v>123</v>
-      </c>
-      <c r="D17" s="161" t="s">
-        <v>47</v>
-      </c>
-      <c r="E17" s="160" t="s">
-        <v>57</v>
-      </c>
-      <c r="F17" s="163"/>
-      <c r="G17" s="162" t="s">
-        <v>58</v>
-      </c>
-      <c r="H17" s="166" t="s">
-        <v>207</v>
-      </c>
-      <c r="I17" s="162" t="s">
-        <v>136</v>
-      </c>
-      <c r="J17" s="163" t="s">
-        <v>143</v>
-      </c>
-      <c r="K17" s="162" t="s">
-        <v>36</v>
-      </c>
-      <c r="L17" s="161" t="s">
-        <v>170</v>
-      </c>
-    </row>
-    <row r="18" spans="1:12" ht="14.1" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A18" s="156"/>
-      <c r="B18" s="159"/>
-      <c r="C18" s="162" t="s">
-        <v>172</v>
-      </c>
-      <c r="D18" s="161" t="s">
-        <v>208</v>
-      </c>
-      <c r="E18" s="160"/>
-      <c r="F18" s="163"/>
-      <c r="G18" s="162" t="s">
-        <v>129</v>
-      </c>
-      <c r="H18" s="166"/>
-      <c r="I18" s="162" t="s">
-        <v>130</v>
-      </c>
-      <c r="J18" s="163" t="s">
-        <v>162</v>
-      </c>
-      <c r="K18" s="162" t="s">
-        <v>201</v>
-      </c>
-      <c r="L18" s="161"/>
-    </row>
-    <row r="19" spans="1:12" ht="14.1" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A19" s="164">
-        <v>0.54166666666666663</v>
-      </c>
-      <c r="B19" s="159"/>
-      <c r="C19" s="167"/>
-      <c r="D19" s="161"/>
-      <c r="E19" s="160"/>
-      <c r="F19" s="163"/>
-      <c r="G19" s="162" t="s">
-        <v>193</v>
-      </c>
-      <c r="H19" s="163"/>
-      <c r="I19" s="162" t="s">
+      <c r="E32" s="128" t="s">
+        <v>198</v>
+      </c>
+      <c r="F32" s="128" t="s">
+        <v>191</v>
+      </c>
+      <c r="G32" s="124"/>
+      <c r="H32" s="127"/>
+      <c r="I32" s="124"/>
+      <c r="J32" s="129"/>
+      <c r="K32" s="124"/>
+      <c r="L32" s="125"/>
+    </row>
+    <row r="33" spans="1:5" ht="14.1" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A33" s="123" t="s">
+        <v>100</v>
+      </c>
+      <c r="B33" s="135" t="s">
+        <v>69</v>
+      </c>
+      <c r="E33" s="132" t="s">
         <v>101</v>
       </c>
-      <c r="J19" s="163"/>
-      <c r="K19" s="162"/>
-      <c r="L19" s="161"/>
-    </row>
-    <row r="20" spans="1:12" ht="14.1" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A20" s="164">
-        <v>0.60416666666666663</v>
-      </c>
-      <c r="B20" s="165" t="s">
-        <v>31</v>
-      </c>
-      <c r="C20" s="162" t="s">
-        <v>164</v>
-      </c>
-      <c r="D20" s="161" t="s">
-        <v>60</v>
-      </c>
-      <c r="E20" s="160" t="s">
-        <v>57</v>
-      </c>
-      <c r="F20" s="163"/>
-      <c r="G20" s="162" t="s">
-        <v>59</v>
-      </c>
-      <c r="H20" s="161" t="s">
-        <v>61</v>
-      </c>
-      <c r="I20" s="162" t="s">
-        <v>137</v>
-      </c>
-      <c r="J20" s="163" t="s">
-        <v>186</v>
-      </c>
-      <c r="K20" s="160" t="s">
-        <v>52</v>
-      </c>
-      <c r="L20" s="161" t="s">
-        <v>118</v>
-      </c>
-    </row>
-    <row r="21" spans="1:12" ht="14.1" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A21" s="156"/>
-      <c r="B21" s="165"/>
-      <c r="C21" s="162" t="s">
-        <v>165</v>
-      </c>
-      <c r="D21" s="161" t="s">
-        <v>209</v>
-      </c>
-      <c r="E21" s="160"/>
-      <c r="F21" s="163"/>
-      <c r="G21" s="162" t="s">
-        <v>62</v>
-      </c>
-      <c r="H21" s="163" t="s">
-        <v>25</v>
-      </c>
-      <c r="I21" s="162" t="s">
-        <v>41</v>
-      </c>
-      <c r="J21" s="163" t="s">
-        <v>210</v>
-      </c>
-      <c r="K21" s="160"/>
-      <c r="L21" s="161"/>
-    </row>
-    <row r="22" spans="1:12" ht="14.1" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A22" s="156"/>
-      <c r="B22" s="165"/>
-      <c r="C22" s="162" t="s">
-        <v>166</v>
-      </c>
-      <c r="E22" s="160"/>
-      <c r="F22" s="163"/>
-      <c r="G22" s="162"/>
-      <c r="H22" s="161"/>
-      <c r="I22" s="162" t="s">
-        <v>173</v>
-      </c>
-      <c r="J22" s="163"/>
-      <c r="K22" s="160"/>
-      <c r="L22" s="161"/>
-    </row>
-    <row r="23" spans="1:12" ht="14.1" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A23" s="156"/>
-      <c r="B23" s="165"/>
-      <c r="C23" s="167"/>
-      <c r="D23" s="161"/>
-      <c r="E23" s="160"/>
-      <c r="F23" s="163"/>
-      <c r="G23" s="162"/>
-      <c r="H23" s="161"/>
-      <c r="I23" s="162"/>
-      <c r="J23" s="163"/>
-      <c r="K23" s="160"/>
-      <c r="L23" s="161"/>
-    </row>
-    <row r="24" spans="1:12" ht="14.1" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A24" s="156" t="s">
-        <v>11</v>
-      </c>
-      <c r="B24" s="159" t="s">
-        <v>91</v>
-      </c>
-      <c r="C24" s="162" t="s">
-        <v>35</v>
-      </c>
-      <c r="D24" s="161" t="s">
-        <v>63</v>
-      </c>
-      <c r="E24" s="168"/>
-      <c r="F24" s="169"/>
-      <c r="G24" s="162" t="s">
-        <v>167</v>
-      </c>
-      <c r="H24" s="161" t="s">
-        <v>142</v>
-      </c>
-      <c r="I24" s="162" t="s">
-        <v>139</v>
-      </c>
-      <c r="J24" s="161"/>
-      <c r="K24" s="168"/>
-      <c r="L24" s="169"/>
-    </row>
-    <row r="25" spans="1:12" ht="14.1" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A25" s="164">
-        <v>0.61805555555555558</v>
-      </c>
-      <c r="B25" s="159"/>
-      <c r="C25" s="162" t="s">
-        <v>53</v>
-      </c>
-      <c r="D25" s="161"/>
-      <c r="E25" s="168"/>
-      <c r="F25" s="169"/>
-      <c r="G25" s="162"/>
-      <c r="H25" s="161"/>
-      <c r="I25" s="160"/>
-      <c r="J25" s="161"/>
-      <c r="K25" s="168"/>
-      <c r="L25" s="169"/>
-    </row>
-    <row r="26" spans="1:12" ht="14.1" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A26" s="164">
-        <v>0.68055555555555547</v>
-      </c>
-      <c r="B26" s="165" t="s">
-        <v>92</v>
-      </c>
-      <c r="C26" s="162" t="s">
-        <v>114</v>
-      </c>
-      <c r="D26" s="161" t="s">
-        <v>209</v>
-      </c>
-      <c r="E26" s="168"/>
-      <c r="F26" s="168" t="s">
-        <v>211</v>
-      </c>
-      <c r="G26" s="162" t="s">
-        <v>59</v>
-      </c>
-      <c r="H26" s="161" t="s">
-        <v>209</v>
-      </c>
-      <c r="I26" s="162" t="s">
-        <v>59</v>
-      </c>
-      <c r="J26" s="163" t="s">
-        <v>191</v>
-      </c>
-      <c r="K26" s="168"/>
-      <c r="L26" s="169"/>
-    </row>
-    <row r="27" spans="1:12" ht="14.1" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A27" s="156"/>
-      <c r="B27" s="165"/>
-      <c r="C27" s="160"/>
-      <c r="D27" s="161"/>
-      <c r="E27" s="168"/>
-      <c r="F27" s="168"/>
-      <c r="H27" s="161"/>
-      <c r="I27" s="167" t="s">
-        <v>138</v>
-      </c>
-      <c r="J27" s="163"/>
-      <c r="K27" s="168"/>
-      <c r="L27" s="169"/>
-    </row>
-    <row r="28" spans="1:12" ht="14.1" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A28" s="157">
-        <v>9</v>
-      </c>
-      <c r="B28" s="170" t="s">
-        <v>93</v>
-      </c>
-      <c r="C28" s="160"/>
-      <c r="D28" s="161"/>
-      <c r="E28" s="162"/>
-      <c r="F28" s="158"/>
-      <c r="G28" s="162"/>
-      <c r="H28" s="161"/>
-      <c r="I28" s="167" t="s">
-        <v>100</v>
-      </c>
-      <c r="J28" s="163"/>
-      <c r="K28" s="162"/>
-      <c r="L28" s="158"/>
-    </row>
-    <row r="29" spans="1:12" ht="14.1" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A29" s="156" t="s">
-        <v>94</v>
-      </c>
-      <c r="B29" s="170" t="s">
-        <v>92</v>
-      </c>
-      <c r="C29" s="160"/>
-      <c r="D29" s="161"/>
-      <c r="E29" s="162"/>
-      <c r="F29" s="163" t="s">
-        <v>201</v>
-      </c>
-      <c r="G29" s="162" t="s">
-        <v>95</v>
-      </c>
-      <c r="H29" s="161"/>
-      <c r="I29" s="162"/>
-      <c r="J29" s="163"/>
-      <c r="K29" s="162"/>
-      <c r="L29" s="158"/>
-    </row>
-    <row r="30" spans="1:12" ht="14.1" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A30" s="156" t="s">
-        <v>12</v>
-      </c>
-      <c r="B30" s="159" t="s">
-        <v>27</v>
-      </c>
-      <c r="C30" s="168"/>
-      <c r="D30" s="161" t="s">
-        <v>209</v>
-      </c>
-      <c r="E30" s="160" t="s">
-        <v>125</v>
-      </c>
-      <c r="F30" s="163" t="s">
-        <v>208</v>
-      </c>
-      <c r="G30" s="168"/>
-      <c r="H30" s="161"/>
-      <c r="I30" s="168"/>
-      <c r="J30" s="166"/>
-      <c r="K30" s="159"/>
-      <c r="L30" s="169"/>
-    </row>
-    <row r="31" spans="1:12" ht="14.1" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A31" s="164">
-        <v>0.75</v>
-      </c>
-      <c r="B31" s="159"/>
-      <c r="C31" s="168"/>
-      <c r="D31" s="161"/>
-      <c r="E31" s="160" t="s">
-        <v>41</v>
-      </c>
-      <c r="F31" s="163"/>
-      <c r="G31" s="168"/>
-      <c r="H31" s="161"/>
-      <c r="I31" s="168"/>
-      <c r="J31" s="171"/>
-      <c r="K31" s="159"/>
-      <c r="L31" s="169"/>
-    </row>
-    <row r="32" spans="1:12" ht="14.1" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A32" s="156" t="s">
-        <v>65</v>
-      </c>
-      <c r="B32" s="157" t="s">
-        <v>31</v>
-      </c>
-      <c r="E32" s="162" t="s">
-        <v>159</v>
-      </c>
-      <c r="F32" s="162" t="s">
-        <v>211</v>
-      </c>
-      <c r="G32" s="157"/>
-      <c r="H32" s="161"/>
-      <c r="I32" s="157"/>
-      <c r="J32" s="163"/>
-      <c r="K32" s="157"/>
-      <c r="L32" s="158"/>
-    </row>
-    <row r="33" spans="1:5" ht="14.1" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A33" s="156" t="s">
-        <v>105</v>
-      </c>
-      <c r="B33" s="172" t="s">
-        <v>69</v>
-      </c>
-      <c r="E33" s="167" t="s">
-        <v>106</v>
-      </c>
     </row>
     <row r="34" spans="1:5" ht="14.1" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A34" s="164">
+      <c r="A34" s="130">
         <v>0.8125</v>
       </c>
-      <c r="B34" s="172"/>
+      <c r="B34" s="135"/>
     </row>
   </sheetData>
   <mergeCells count="31">
+    <mergeCell ref="B26:B27"/>
+    <mergeCell ref="B30:B31"/>
+    <mergeCell ref="K24:K25"/>
+    <mergeCell ref="A14:A16"/>
+    <mergeCell ref="B20:B23"/>
+    <mergeCell ref="B24:B25"/>
+    <mergeCell ref="B10:B13"/>
+    <mergeCell ref="B14:B16"/>
+    <mergeCell ref="B17:B19"/>
+    <mergeCell ref="K2:L2"/>
+    <mergeCell ref="A2:A3"/>
+    <mergeCell ref="C2:D2"/>
+    <mergeCell ref="E2:F2"/>
+    <mergeCell ref="G2:H2"/>
+    <mergeCell ref="I2:J2"/>
     <mergeCell ref="B33:B34"/>
     <mergeCell ref="A1:L1"/>
     <mergeCell ref="K30:K31"/>
@@ -3365,21 +3345,6 @@
     <mergeCell ref="F26:F27"/>
     <mergeCell ref="B4:B6"/>
     <mergeCell ref="B7:B9"/>
-    <mergeCell ref="B10:B13"/>
-    <mergeCell ref="B14:B16"/>
-    <mergeCell ref="B17:B19"/>
-    <mergeCell ref="K2:L2"/>
-    <mergeCell ref="A2:A3"/>
-    <mergeCell ref="C2:D2"/>
-    <mergeCell ref="E2:F2"/>
-    <mergeCell ref="G2:H2"/>
-    <mergeCell ref="I2:J2"/>
-    <mergeCell ref="B26:B27"/>
-    <mergeCell ref="B30:B31"/>
-    <mergeCell ref="K24:K25"/>
-    <mergeCell ref="A14:A16"/>
-    <mergeCell ref="B20:B23"/>
-    <mergeCell ref="B24:B25"/>
   </mergeCells>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.70866141732283472" right="0.70866141732283472" top="0.74803149606299213" bottom="0.74803149606299213" header="0.31496062992125984" footer="0.31496062992125984"/>
@@ -3391,8 +3356,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:L33"/>
   <sheetViews>
-    <sheetView topLeftCell="A7" workbookViewId="0">
-      <selection activeCell="F32" sqref="F32"/>
+    <sheetView tabSelected="1" topLeftCell="A7" workbookViewId="0">
+      <selection activeCell="N19" sqref="N19"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15.95" customHeight="1" x14ac:dyDescent="0.15"/>
@@ -3413,47 +3378,47 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:12" ht="25.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.2">
-      <c r="A1" s="144" t="s">
-        <v>154</v>
-      </c>
-      <c r="B1" s="145"/>
-      <c r="C1" s="145"/>
-      <c r="D1" s="145"/>
-      <c r="E1" s="145"/>
-      <c r="F1" s="145"/>
-      <c r="G1" s="145"/>
-      <c r="H1" s="145"/>
-      <c r="I1" s="145"/>
-      <c r="J1" s="145"/>
-      <c r="K1" s="145"/>
-      <c r="L1" s="146"/>
+      <c r="A1" s="142" t="s">
+        <v>142</v>
+      </c>
+      <c r="B1" s="143"/>
+      <c r="C1" s="143"/>
+      <c r="D1" s="143"/>
+      <c r="E1" s="143"/>
+      <c r="F1" s="143"/>
+      <c r="G1" s="143"/>
+      <c r="H1" s="143"/>
+      <c r="I1" s="143"/>
+      <c r="J1" s="143"/>
+      <c r="K1" s="143"/>
+      <c r="L1" s="144"/>
     </row>
     <row r="2" spans="1:12" ht="15.95" customHeight="1" thickBot="1" x14ac:dyDescent="0.2">
-      <c r="A2" s="147"/>
+      <c r="A2" s="145"/>
       <c r="B2" s="11"/>
-      <c r="C2" s="149" t="s">
+      <c r="C2" s="147" t="s">
         <v>0</v>
       </c>
-      <c r="D2" s="150"/>
-      <c r="E2" s="151" t="s">
+      <c r="D2" s="148"/>
+      <c r="E2" s="149" t="s">
         <v>1</v>
       </c>
-      <c r="F2" s="150"/>
-      <c r="G2" s="151" t="s">
+      <c r="F2" s="148"/>
+      <c r="G2" s="149" t="s">
         <v>2</v>
       </c>
-      <c r="H2" s="150"/>
-      <c r="I2" s="151" t="s">
+      <c r="H2" s="148"/>
+      <c r="I2" s="149" t="s">
         <v>3</v>
       </c>
-      <c r="J2" s="150"/>
-      <c r="K2" s="151" t="s">
+      <c r="J2" s="148"/>
+      <c r="K2" s="149" t="s">
         <v>4</v>
       </c>
-      <c r="L2" s="152"/>
+      <c r="L2" s="150"/>
     </row>
     <row r="3" spans="1:12" ht="15.95" customHeight="1" thickBot="1" x14ac:dyDescent="0.2">
-      <c r="A3" s="148"/>
+      <c r="A3" s="146"/>
       <c r="B3" s="12"/>
       <c r="C3" s="13" t="s">
         <v>5</v>
@@ -3490,27 +3455,27 @@
       <c r="A4" s="30" t="s">
         <v>7</v>
       </c>
-      <c r="B4" s="138" t="s">
+      <c r="B4" s="156" t="s">
         <v>66</v>
       </c>
-      <c r="C4" s="139"/>
+      <c r="C4" s="157"/>
       <c r="D4" s="54" t="s">
         <v>13</v>
       </c>
-      <c r="E4" s="141" t="s">
+      <c r="E4" s="159" t="s">
         <v>14</v>
       </c>
       <c r="F4" s="37" t="s">
-        <v>98</v>
-      </c>
-      <c r="G4" s="132"/>
-      <c r="H4" s="130" t="s">
+        <v>94</v>
+      </c>
+      <c r="G4" s="161"/>
+      <c r="H4" s="171" t="s">
         <v>15</v>
       </c>
-      <c r="I4" s="132"/>
+      <c r="I4" s="161"/>
       <c r="J4" s="36"/>
       <c r="K4" s="120" t="s">
-        <v>161</v>
+        <v>147</v>
       </c>
       <c r="L4" s="44" t="s">
         <v>17</v>
@@ -3520,22 +3485,22 @@
       <c r="A5" s="4">
         <v>0.33333333333333331</v>
       </c>
-      <c r="B5" s="123"/>
-      <c r="C5" s="140"/>
+      <c r="B5" s="155"/>
+      <c r="C5" s="158"/>
       <c r="D5" s="36" t="s">
-        <v>157</v>
-      </c>
-      <c r="E5" s="142"/>
+        <v>202</v>
+      </c>
+      <c r="E5" s="160"/>
       <c r="F5" s="37"/>
-      <c r="G5" s="133"/>
-      <c r="H5" s="131"/>
-      <c r="I5" s="133"/>
+      <c r="G5" s="162"/>
+      <c r="H5" s="172"/>
+      <c r="I5" s="162"/>
       <c r="J5" s="52" t="s">
-        <v>181</v>
+        <v>164</v>
       </c>
       <c r="K5" s="9"/>
       <c r="L5" s="56" t="s">
-        <v>190</v>
+        <v>171</v>
       </c>
     </row>
     <row r="6" spans="1:12" ht="15.95" customHeight="1" thickBot="1" x14ac:dyDescent="0.2">
@@ -3547,7 +3512,7 @@
       </c>
       <c r="C6" s="71"/>
       <c r="D6" s="72" t="s">
-        <v>144</v>
+        <v>135</v>
       </c>
       <c r="E6" s="73"/>
       <c r="F6" s="72" t="s">
@@ -3558,7 +3523,7 @@
         <v>16</v>
       </c>
       <c r="I6" s="119" t="s">
-        <v>196</v>
+        <v>177</v>
       </c>
       <c r="J6" s="72" t="s">
         <v>15</v>
@@ -3572,14 +3537,14 @@
       <c r="A7" s="29" t="s">
         <v>9</v>
       </c>
-      <c r="B7" s="137" t="s">
+      <c r="B7" s="154" t="s">
         <v>72</v>
       </c>
       <c r="C7" s="38" t="s">
-        <v>99</v>
+        <v>95</v>
       </c>
       <c r="D7" s="8" t="s">
-        <v>145</v>
+        <v>136</v>
       </c>
       <c r="E7" s="50"/>
       <c r="F7" s="8" t="s">
@@ -3595,17 +3560,17 @@
       <c r="J7" s="52"/>
       <c r="K7" s="9"/>
       <c r="L7" s="43" t="s">
-        <v>150</v>
+        <v>200</v>
       </c>
     </row>
     <row r="8" spans="1:12" ht="15.95" customHeight="1" thickBot="1" x14ac:dyDescent="0.2">
       <c r="A8" s="2">
         <v>0.40972222222222227</v>
       </c>
-      <c r="B8" s="123"/>
+      <c r="B8" s="155"/>
       <c r="C8" s="38"/>
       <c r="D8" s="8" t="s">
-        <v>158</v>
+        <v>145</v>
       </c>
       <c r="E8" s="39"/>
       <c r="F8" s="40"/>
@@ -3617,22 +3582,22 @@
       <c r="J8" s="40"/>
       <c r="K8" s="42"/>
       <c r="L8" s="43" t="s">
-        <v>190</v>
+        <v>171</v>
       </c>
     </row>
     <row r="9" spans="1:12" ht="15.95" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A9" s="1" t="s">
         <v>8</v>
       </c>
-      <c r="B9" s="124" t="s">
+      <c r="B9" s="163" t="s">
         <v>73</v>
       </c>
-      <c r="C9" s="143"/>
+      <c r="C9" s="165"/>
       <c r="D9" s="5" t="s">
         <v>13</v>
       </c>
       <c r="E9" s="16" t="s">
-        <v>83</v>
+        <v>199</v>
       </c>
       <c r="F9" s="14" t="s">
         <v>23</v>
@@ -3641,21 +3606,21 @@
       <c r="H9" s="14" t="s">
         <v>15</v>
       </c>
-      <c r="I9" s="128"/>
+      <c r="I9" s="169"/>
       <c r="J9" s="6" t="s">
         <v>16</v>
       </c>
       <c r="K9" s="18"/>
       <c r="L9" s="95" t="s">
-        <v>146</v>
+        <v>203</v>
       </c>
     </row>
     <row r="10" spans="1:12" ht="15.95" customHeight="1" thickBot="1" x14ac:dyDescent="0.2">
       <c r="A10" s="33">
         <v>0.47222222222222227</v>
       </c>
-      <c r="B10" s="125"/>
-      <c r="C10" s="136"/>
+      <c r="B10" s="164"/>
+      <c r="C10" s="153"/>
       <c r="D10" s="75"/>
       <c r="E10" s="76"/>
       <c r="F10" s="77"/>
@@ -3663,20 +3628,20 @@
       <c r="H10" s="77" t="s">
         <v>17</v>
       </c>
-      <c r="I10" s="129"/>
+      <c r="I10" s="170"/>
       <c r="J10" s="75" t="s">
-        <v>182</v>
+        <v>165</v>
       </c>
       <c r="K10" s="78"/>
       <c r="L10" s="109" t="s">
-        <v>147</v>
+        <v>137</v>
       </c>
     </row>
     <row r="11" spans="1:12" ht="15.95" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A11" s="30" t="s">
         <v>10</v>
       </c>
-      <c r="B11" s="137" t="s">
+      <c r="B11" s="154" t="s">
         <v>67</v>
       </c>
       <c r="C11" s="49"/>
@@ -3687,24 +3652,24 @@
       <c r="F11" s="51"/>
       <c r="G11" s="50"/>
       <c r="H11" s="8" t="s">
-        <v>187</v>
+        <v>168</v>
       </c>
       <c r="I11" s="116"/>
       <c r="J11" s="36" t="s">
         <v>25</v>
       </c>
       <c r="K11" s="9" t="s">
-        <v>77</v>
+        <v>76</v>
       </c>
       <c r="L11" s="43" t="s">
-        <v>186</v>
+        <v>167</v>
       </c>
     </row>
     <row r="12" spans="1:12" ht="15.95" customHeight="1" thickBot="1" x14ac:dyDescent="0.2">
       <c r="A12" s="4">
         <v>0.5625</v>
       </c>
-      <c r="B12" s="123"/>
+      <c r="B12" s="155"/>
       <c r="C12" s="45"/>
       <c r="D12" s="46"/>
       <c r="E12" s="39"/>
@@ -3713,7 +3678,7 @@
       <c r="H12" s="40"/>
       <c r="I12" s="39"/>
       <c r="J12" s="46" t="s">
-        <v>180</v>
+        <v>163</v>
       </c>
       <c r="K12" s="39"/>
       <c r="L12" s="48"/>
@@ -3722,12 +3687,12 @@
       <c r="A13" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="B13" s="126" t="s">
+      <c r="B13" s="167" t="s">
         <v>74</v>
       </c>
       <c r="C13" s="55"/>
       <c r="D13" s="80" t="s">
-        <v>198</v>
+        <v>23</v>
       </c>
       <c r="E13" s="19"/>
       <c r="F13" s="20"/>
@@ -3735,25 +3700,25 @@
         <v>26</v>
       </c>
       <c r="H13" s="80" t="s">
-        <v>109</v>
+        <v>104</v>
       </c>
       <c r="I13" s="15" t="s">
-        <v>197</v>
+        <v>178</v>
       </c>
       <c r="J13" s="21" t="s">
-        <v>75</v>
+        <v>200</v>
       </c>
       <c r="K13" s="121" t="s">
-        <v>160</v>
-      </c>
-      <c r="L13" s="134"/>
+        <v>146</v>
+      </c>
+      <c r="L13" s="151"/>
     </row>
     <row r="14" spans="1:12" ht="15.95" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A14" s="3"/>
-      <c r="B14" s="124"/>
+      <c r="B14" s="163"/>
       <c r="C14" s="17"/>
       <c r="D14" s="14" t="s">
-        <v>199</v>
+        <v>179</v>
       </c>
       <c r="E14" s="18"/>
       <c r="F14" s="22"/>
@@ -3764,36 +3729,36 @@
       <c r="I14" s="16"/>
       <c r="J14" s="6"/>
       <c r="K14" s="23"/>
-      <c r="L14" s="135"/>
+      <c r="L14" s="152"/>
     </row>
     <row r="15" spans="1:12" ht="15.95" customHeight="1" thickBot="1" x14ac:dyDescent="0.2">
       <c r="A15" s="32">
         <v>0.625</v>
       </c>
-      <c r="B15" s="125"/>
+      <c r="B15" s="164"/>
       <c r="C15" s="81"/>
       <c r="D15" s="82"/>
       <c r="E15" s="78"/>
       <c r="F15" s="83"/>
       <c r="G15" s="76"/>
       <c r="H15" s="82" t="s">
-        <v>76</v>
+        <v>75</v>
       </c>
       <c r="I15" s="76"/>
       <c r="J15" s="75"/>
       <c r="K15" s="84"/>
-      <c r="L15" s="136"/>
+      <c r="L15" s="153"/>
     </row>
     <row r="16" spans="1:12" ht="15.95" customHeight="1" thickTop="1" x14ac:dyDescent="0.15">
       <c r="A16" s="29" t="s">
         <v>11</v>
       </c>
-      <c r="B16" s="122" t="s">
+      <c r="B16" s="166" t="s">
         <v>27</v>
       </c>
       <c r="C16" s="88"/>
       <c r="D16" s="89" t="s">
-        <v>183</v>
+        <v>204</v>
       </c>
       <c r="E16" s="90"/>
       <c r="F16" s="91"/>
@@ -3804,21 +3769,21 @@
         <v>18</v>
       </c>
       <c r="I16" s="115" t="s">
-        <v>155</v>
+        <v>143</v>
       </c>
       <c r="J16" s="93" t="s">
         <v>30</v>
       </c>
       <c r="K16" s="94"/>
       <c r="L16" s="93" t="s">
-        <v>189</v>
+        <v>170</v>
       </c>
     </row>
     <row r="17" spans="1:12" ht="15.95" customHeight="1" thickBot="1" x14ac:dyDescent="0.2">
       <c r="A17" s="2">
         <v>0.63888888888888895</v>
       </c>
-      <c r="B17" s="123"/>
+      <c r="B17" s="155"/>
       <c r="C17" s="45"/>
       <c r="D17" s="46" t="s">
         <v>29</v>
@@ -3834,20 +3799,20 @@
     </row>
     <row r="18" spans="1:12" ht="15.95" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A18" s="2" t="s">
-        <v>108</v>
-      </c>
-      <c r="B18" s="124" t="s">
+        <v>103</v>
+      </c>
+      <c r="B18" s="163" t="s">
         <v>69</v>
       </c>
       <c r="C18" s="17"/>
       <c r="D18" s="6" t="s">
-        <v>84</v>
+        <v>201</v>
       </c>
       <c r="E18" s="18"/>
       <c r="F18" s="22"/>
       <c r="G18" s="18"/>
       <c r="H18" s="118" t="s">
-        <v>188</v>
+        <v>169</v>
       </c>
       <c r="I18" s="18"/>
       <c r="J18" s="62" t="s">
@@ -3855,12 +3820,12 @@
       </c>
       <c r="K18" s="18"/>
       <c r="L18" s="87" t="s">
-        <v>151</v>
+        <v>205</v>
       </c>
     </row>
     <row r="19" spans="1:12" ht="15.95" customHeight="1" thickBot="1" x14ac:dyDescent="0.2">
       <c r="A19" s="33"/>
-      <c r="B19" s="125"/>
+      <c r="B19" s="164"/>
       <c r="C19" s="81"/>
       <c r="D19" s="75"/>
       <c r="E19" s="78"/>
@@ -3877,35 +3842,35 @@
         <v>9</v>
       </c>
       <c r="B20" s="57" t="s">
-        <v>78</v>
+        <v>77</v>
       </c>
       <c r="C20" s="38"/>
       <c r="D20" s="8" t="s">
-        <v>184</v>
+        <v>206</v>
       </c>
       <c r="E20" s="50"/>
       <c r="F20" s="51"/>
       <c r="G20" s="90" t="s">
-        <v>148</v>
+        <v>138</v>
       </c>
       <c r="H20" s="93"/>
       <c r="I20" s="111" t="s">
-        <v>156</v>
+        <v>144</v>
       </c>
       <c r="J20" s="53" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
       <c r="K20" s="50"/>
       <c r="L20" s="43"/>
     </row>
     <row r="21" spans="1:12" ht="15.95" customHeight="1" thickBot="1" x14ac:dyDescent="0.2">
       <c r="A21" s="69" t="s">
-        <v>86</v>
+        <v>83</v>
       </c>
       <c r="B21" s="57"/>
       <c r="C21" s="38"/>
       <c r="D21" s="8" t="s">
-        <v>195</v>
+        <v>176</v>
       </c>
       <c r="E21" s="39"/>
       <c r="F21" s="98"/>
@@ -3913,7 +3878,7 @@
       <c r="H21" s="107"/>
       <c r="I21" s="104"/>
       <c r="J21" s="8" t="s">
-        <v>82</v>
+        <v>81</v>
       </c>
       <c r="K21" s="50"/>
       <c r="L21" s="43"/>
@@ -3923,24 +3888,24 @@
         <v>0.77083333333333337</v>
       </c>
       <c r="B22" s="96" t="s">
-        <v>79</v>
+        <v>78</v>
       </c>
       <c r="C22" s="55" t="s">
-        <v>107</v>
+        <v>102</v>
       </c>
       <c r="D22" s="21" t="s">
-        <v>96</v>
+        <v>93</v>
       </c>
       <c r="E22" s="100"/>
       <c r="F22" s="15" t="s">
-        <v>111</v>
+        <v>106</v>
       </c>
       <c r="G22" s="105"/>
       <c r="H22" s="106" t="s">
-        <v>80</v>
+        <v>79</v>
       </c>
       <c r="I22" s="103" t="s">
-        <v>110</v>
+        <v>105</v>
       </c>
       <c r="J22" s="101"/>
       <c r="K22" s="19"/>
@@ -3953,11 +3918,11 @@
       <c r="D23" s="75"/>
       <c r="E23" s="112"/>
       <c r="F23" s="113" t="s">
-        <v>113</v>
+        <v>108</v>
       </c>
       <c r="G23" s="78"/>
       <c r="H23" s="75" t="s">
-        <v>82</v>
+        <v>81</v>
       </c>
       <c r="I23" s="76"/>
       <c r="J23" s="114"/>
@@ -3978,7 +3943,7 @@
         <v>13</v>
       </c>
       <c r="G24" s="42" t="s">
-        <v>149</v>
+        <v>139</v>
       </c>
       <c r="H24" s="40"/>
       <c r="I24" s="39"/>
@@ -3988,21 +3953,21 @@
     </row>
     <row r="25" spans="1:12" ht="15.95" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A25" s="65" t="s">
-        <v>85</v>
-      </c>
-      <c r="B25" s="126" t="s">
+        <v>82</v>
+      </c>
+      <c r="B25" s="167" t="s">
         <v>69</v>
       </c>
       <c r="C25" s="58"/>
       <c r="D25" s="66"/>
       <c r="E25" s="15" t="s">
-        <v>110</v>
+        <v>105</v>
       </c>
       <c r="F25" s="67" t="s">
-        <v>112</v>
+        <v>107</v>
       </c>
       <c r="G25" s="68" t="s">
-        <v>99</v>
+        <v>95</v>
       </c>
       <c r="H25" s="67"/>
       <c r="I25" s="58"/>
@@ -4014,7 +3979,7 @@
       <c r="A26" s="64">
         <v>0.83333333333333337</v>
       </c>
-      <c r="B26" s="127"/>
+      <c r="B26" s="168"/>
       <c r="C26" s="24"/>
       <c r="D26" s="25"/>
       <c r="E26" s="24"/>
@@ -4040,13 +4005,13 @@
     </row>
   </sheetData>
   <mergeCells count="23">
-    <mergeCell ref="A1:L1"/>
-    <mergeCell ref="A2:A3"/>
-    <mergeCell ref="C2:D2"/>
-    <mergeCell ref="E2:F2"/>
-    <mergeCell ref="G2:H2"/>
-    <mergeCell ref="I2:J2"/>
-    <mergeCell ref="K2:L2"/>
+    <mergeCell ref="B16:B17"/>
+    <mergeCell ref="B18:B19"/>
+    <mergeCell ref="B25:B26"/>
+    <mergeCell ref="I9:I10"/>
+    <mergeCell ref="H4:H5"/>
+    <mergeCell ref="I4:I5"/>
+    <mergeCell ref="B13:B15"/>
     <mergeCell ref="L13:L15"/>
     <mergeCell ref="B11:B12"/>
     <mergeCell ref="B4:B5"/>
@@ -4056,13 +4021,13 @@
     <mergeCell ref="B7:B8"/>
     <mergeCell ref="B9:B10"/>
     <mergeCell ref="C9:C10"/>
-    <mergeCell ref="B16:B17"/>
-    <mergeCell ref="B18:B19"/>
-    <mergeCell ref="B25:B26"/>
-    <mergeCell ref="I9:I10"/>
-    <mergeCell ref="H4:H5"/>
-    <mergeCell ref="I4:I5"/>
-    <mergeCell ref="B13:B15"/>
+    <mergeCell ref="A1:L1"/>
+    <mergeCell ref="A2:A3"/>
+    <mergeCell ref="C2:D2"/>
+    <mergeCell ref="E2:F2"/>
+    <mergeCell ref="G2:H2"/>
+    <mergeCell ref="I2:J2"/>
+    <mergeCell ref="K2:L2"/>
   </mergeCells>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.70866141732283472" right="0.70866141732283472" top="0.74803149606299213" bottom="0.74803149606299213" header="0.31496062992125984" footer="0.31496062992125984"/>
